--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.0752353570624</v>
+        <v>14.96931633333333</v>
       </c>
       <c r="H2">
-        <v>13.0752353570624</v>
+        <v>44.907949</v>
       </c>
       <c r="I2">
-        <v>0.5411778564502261</v>
+        <v>0.521301883166304</v>
       </c>
       <c r="J2">
-        <v>0.5411778564502261</v>
+        <v>0.521301883166304</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.77490874188457</v>
+        <v>1.956596</v>
       </c>
       <c r="N2">
-        <v>1.77490874188457</v>
+        <v>5.869788</v>
       </c>
       <c r="O2">
-        <v>0.2165416153453857</v>
+        <v>0.2233841747945733</v>
       </c>
       <c r="P2">
-        <v>0.2165416153453857</v>
+        <v>0.2233841747945733</v>
       </c>
       <c r="Q2">
-        <v>23.20734953744827</v>
+        <v>29.28890446053467</v>
       </c>
       <c r="R2">
-        <v>23.20734953744827</v>
+        <v>263.600140144812</v>
       </c>
       <c r="S2">
-        <v>0.1171875272248852</v>
+        <v>0.1164505909899619</v>
       </c>
       <c r="T2">
-        <v>0.1171875272248852</v>
+        <v>0.1164505909899619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.0752353570624</v>
+        <v>14.96931633333333</v>
       </c>
       <c r="H3">
-        <v>13.0752353570624</v>
+        <v>44.907949</v>
       </c>
       <c r="I3">
-        <v>0.5411778564502261</v>
+        <v>0.521301883166304</v>
       </c>
       <c r="J3">
-        <v>0.5411778564502261</v>
+        <v>0.521301883166304</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.21736141105477</v>
+        <v>3.312913666666667</v>
       </c>
       <c r="N3">
-        <v>3.21736141105477</v>
+        <v>9.938741</v>
       </c>
       <c r="O3">
-        <v>0.3925230749384738</v>
+        <v>0.3782346920846191</v>
       </c>
       <c r="P3">
-        <v>0.3925230749384738</v>
+        <v>0.3782346920846191</v>
       </c>
       <c r="Q3">
-        <v>42.06775767827151</v>
+        <v>49.59205266135655</v>
       </c>
       <c r="R3">
-        <v>42.06775767827151</v>
+        <v>446.328473952209</v>
       </c>
       <c r="S3">
-        <v>0.2124247963024547</v>
+        <v>0.1971744572625391</v>
       </c>
       <c r="T3">
-        <v>0.2124247963024547</v>
+        <v>0.1971744572625391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.0752353570624</v>
+        <v>14.96931633333333</v>
       </c>
       <c r="H4">
-        <v>13.0752353570624</v>
+        <v>44.907949</v>
       </c>
       <c r="I4">
-        <v>0.5411778564502261</v>
+        <v>0.521301883166304</v>
       </c>
       <c r="J4">
-        <v>0.5411778564502261</v>
+        <v>0.521301883166304</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.95495923780844</v>
+        <v>2.223766666666667</v>
       </c>
       <c r="N4">
-        <v>1.95495923780844</v>
+        <v>6.6713</v>
       </c>
       <c r="O4">
-        <v>0.2385080546957802</v>
+        <v>0.253886996482162</v>
       </c>
       <c r="P4">
-        <v>0.2385080546957802</v>
+        <v>0.2538869964821621</v>
       </c>
       <c r="Q4">
-        <v>25.56155214780868</v>
+        <v>33.28826668485556</v>
       </c>
       <c r="R4">
-        <v>25.56155214780868</v>
+        <v>299.5944001637</v>
       </c>
       <c r="S4">
-        <v>0.1290752777863756</v>
+        <v>0.1323517693775879</v>
       </c>
       <c r="T4">
-        <v>0.1290752777863756</v>
+        <v>0.1323517693775879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.0752353570624</v>
+        <v>14.96931633333333</v>
       </c>
       <c r="H5">
-        <v>13.0752353570624</v>
+        <v>44.907949</v>
       </c>
       <c r="I5">
-        <v>0.5411778564502261</v>
+        <v>0.521301883166304</v>
       </c>
       <c r="J5">
-        <v>0.5411778564502261</v>
+        <v>0.521301883166304</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.24938786941986</v>
+        <v>1.265607333333333</v>
       </c>
       <c r="N5">
-        <v>1.24938786941986</v>
+        <v>3.796822</v>
       </c>
       <c r="O5">
-        <v>0.1524272550203603</v>
+        <v>0.1444941366386454</v>
       </c>
       <c r="P5">
-        <v>0.1524272550203603</v>
+        <v>0.1444941366386455</v>
       </c>
       <c r="Q5">
-        <v>16.33604044492341</v>
+        <v>18.94527652645311</v>
       </c>
       <c r="R5">
-        <v>16.33604044492341</v>
+        <v>170.507488738078</v>
       </c>
       <c r="S5">
-        <v>0.08249025513651055</v>
+        <v>0.07532506553621511</v>
       </c>
       <c r="T5">
-        <v>0.08249025513651055</v>
+        <v>0.07532506553621512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.24266612782253</v>
+        <v>7.459653666666667</v>
       </c>
       <c r="H6">
-        <v>7.24266612782253</v>
+        <v>22.378961</v>
       </c>
       <c r="I6">
-        <v>0.2997705527283344</v>
+        <v>0.2597801674844976</v>
       </c>
       <c r="J6">
-        <v>0.2997705527283344</v>
+        <v>0.2597801674844975</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.77490874188457</v>
+        <v>1.956596</v>
       </c>
       <c r="N6">
-        <v>1.77490874188457</v>
+        <v>5.869788</v>
       </c>
       <c r="O6">
-        <v>0.2165416153453857</v>
+        <v>0.2233841747945733</v>
       </c>
       <c r="P6">
-        <v>0.2165416153453857</v>
+        <v>0.2233841747945733</v>
       </c>
       <c r="Q6">
-        <v>12.85507142482348</v>
+        <v>14.59552852558533</v>
       </c>
       <c r="R6">
-        <v>12.85507142482348</v>
+        <v>131.359756730268</v>
       </c>
       <c r="S6">
-        <v>0.06491279972077263</v>
+        <v>0.05803077834152053</v>
       </c>
       <c r="T6">
-        <v>0.06491279972077263</v>
+        <v>0.05803077834152052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.24266612782253</v>
+        <v>7.459653666666667</v>
       </c>
       <c r="H7">
-        <v>7.24266612782253</v>
+        <v>22.378961</v>
       </c>
       <c r="I7">
-        <v>0.2997705527283344</v>
+        <v>0.2597801674844976</v>
       </c>
       <c r="J7">
-        <v>0.2997705527283344</v>
+        <v>0.2597801674844975</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.21736141105477</v>
+        <v>3.312913666666667</v>
       </c>
       <c r="N7">
-        <v>3.21736141105477</v>
+        <v>9.938741</v>
       </c>
       <c r="O7">
-        <v>0.3925230749384738</v>
+        <v>0.3782346920846191</v>
       </c>
       <c r="P7">
-        <v>0.3925230749384738</v>
+        <v>0.3782346920846191</v>
       </c>
       <c r="Q7">
-        <v>23.30227451280969</v>
+        <v>24.71318858090011</v>
       </c>
       <c r="R7">
-        <v>23.30227451280969</v>
+        <v>222.418697228101</v>
       </c>
       <c r="S7">
-        <v>0.1176668591329317</v>
+        <v>0.09825787165818972</v>
       </c>
       <c r="T7">
-        <v>0.1176668591329317</v>
+        <v>0.09825787165818969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.24266612782253</v>
+        <v>7.459653666666667</v>
       </c>
       <c r="H8">
-        <v>7.24266612782253</v>
+        <v>22.378961</v>
       </c>
       <c r="I8">
-        <v>0.2997705527283344</v>
+        <v>0.2597801674844976</v>
       </c>
       <c r="J8">
-        <v>0.2997705527283344</v>
+        <v>0.2597801674844975</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.95495923780844</v>
+        <v>2.223766666666667</v>
       </c>
       <c r="N8">
-        <v>1.95495923780844</v>
+        <v>6.6713</v>
       </c>
       <c r="O8">
-        <v>0.2385080546957802</v>
+        <v>0.253886996482162</v>
       </c>
       <c r="P8">
-        <v>0.2385080546957802</v>
+        <v>0.2538869964821621</v>
       </c>
       <c r="Q8">
-        <v>14.15911705294894</v>
+        <v>16.58852916881111</v>
       </c>
       <c r="R8">
-        <v>14.15911705294894</v>
+        <v>149.2967625193</v>
       </c>
       <c r="S8">
-        <v>0.07149769138631384</v>
+        <v>0.06595480646827209</v>
       </c>
       <c r="T8">
-        <v>0.07149769138631384</v>
+        <v>0.06595480646827209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.24266612782253</v>
+        <v>7.459653666666667</v>
       </c>
       <c r="H9">
-        <v>7.24266612782253</v>
+        <v>22.378961</v>
       </c>
       <c r="I9">
-        <v>0.2997705527283344</v>
+        <v>0.2597801674844976</v>
       </c>
       <c r="J9">
-        <v>0.2997705527283344</v>
+        <v>0.2597801674844975</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.24938786941986</v>
+        <v>1.265607333333333</v>
       </c>
       <c r="N9">
-        <v>1.24938786941986</v>
+        <v>3.796822</v>
       </c>
       <c r="O9">
-        <v>0.1524272550203603</v>
+        <v>0.1444941366386454</v>
       </c>
       <c r="P9">
-        <v>0.1524272550203603</v>
+        <v>0.1444941366386455</v>
       </c>
       <c r="Q9">
-        <v>9.048899202359578</v>
+        <v>9.440992384660223</v>
       </c>
       <c r="R9">
-        <v>9.048899202359578</v>
+        <v>84.96893146194201</v>
       </c>
       <c r="S9">
-        <v>0.04569320248831619</v>
+        <v>0.03753671101651519</v>
       </c>
       <c r="T9">
-        <v>0.04569320248831619</v>
+        <v>0.03753671101651519</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.32574416526244</v>
+        <v>2.657723666666667</v>
       </c>
       <c r="H10">
-        <v>2.32574416526244</v>
+        <v>7.973171000000001</v>
       </c>
       <c r="I10">
-        <v>0.09626145974714793</v>
+        <v>0.09255441741743681</v>
       </c>
       <c r="J10">
-        <v>0.09626145974714793</v>
+        <v>0.09255441741743679</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.77490874188457</v>
+        <v>1.956596</v>
       </c>
       <c r="N10">
-        <v>1.77490874188457</v>
+        <v>5.869788</v>
       </c>
       <c r="O10">
-        <v>0.2165416153453857</v>
+        <v>0.2233841747945733</v>
       </c>
       <c r="P10">
-        <v>0.2165416153453857</v>
+        <v>0.2233841747945733</v>
       </c>
       <c r="Q10">
-        <v>4.127983650311337</v>
+        <v>5.200091495305334</v>
       </c>
       <c r="R10">
-        <v>4.127983650311337</v>
+        <v>46.800823457748</v>
       </c>
       <c r="S10">
-        <v>0.02084461198915223</v>
+        <v>0.0206751921583866</v>
       </c>
       <c r="T10">
-        <v>0.02084461198915223</v>
+        <v>0.0206751921583866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.32574416526244</v>
+        <v>2.657723666666667</v>
       </c>
       <c r="H11">
-        <v>2.32574416526244</v>
+        <v>7.973171000000001</v>
       </c>
       <c r="I11">
-        <v>0.09626145974714793</v>
+        <v>0.09255441741743681</v>
       </c>
       <c r="J11">
-        <v>0.09626145974714793</v>
+        <v>0.09255441741743679</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.21736141105477</v>
+        <v>3.312913666666667</v>
       </c>
       <c r="N11">
-        <v>3.21736141105477</v>
+        <v>9.938741</v>
       </c>
       <c r="O11">
-        <v>0.3925230749384738</v>
+        <v>0.3782346920846191</v>
       </c>
       <c r="P11">
-        <v>0.3925230749384738</v>
+        <v>0.3782346920846191</v>
       </c>
       <c r="Q11">
-        <v>7.482759529301163</v>
+        <v>8.804809057523446</v>
       </c>
       <c r="R11">
-        <v>7.482759529301163</v>
+        <v>79.24328151771101</v>
       </c>
       <c r="S11">
-        <v>0.03778484417801663</v>
+        <v>0.03500729157295552</v>
       </c>
       <c r="T11">
-        <v>0.03778484417801663</v>
+        <v>0.03500729157295551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.32574416526244</v>
+        <v>2.657723666666667</v>
       </c>
       <c r="H12">
-        <v>2.32574416526244</v>
+        <v>7.973171000000001</v>
       </c>
       <c r="I12">
-        <v>0.09626145974714793</v>
+        <v>0.09255441741743681</v>
       </c>
       <c r="J12">
-        <v>0.09626145974714793</v>
+        <v>0.09255441741743679</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.95495923780844</v>
+        <v>2.223766666666667</v>
       </c>
       <c r="N12">
-        <v>1.95495923780844</v>
+        <v>6.6713</v>
       </c>
       <c r="O12">
-        <v>0.2385080546957802</v>
+        <v>0.253886996482162</v>
       </c>
       <c r="P12">
-        <v>0.2385080546957802</v>
+        <v>0.2538869964821621</v>
       </c>
       <c r="Q12">
-        <v>4.546735040658886</v>
+        <v>5.910157299144445</v>
       </c>
       <c r="R12">
-        <v>4.546735040658886</v>
+        <v>53.1914156923</v>
       </c>
       <c r="S12">
-        <v>0.02295913350646841</v>
+        <v>0.02349836304926933</v>
       </c>
       <c r="T12">
-        <v>0.02295913350646841</v>
+        <v>0.02349836304926933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.32574416526244</v>
+        <v>2.657723666666667</v>
       </c>
       <c r="H13">
-        <v>2.32574416526244</v>
+        <v>7.973171000000001</v>
       </c>
       <c r="I13">
-        <v>0.09626145974714793</v>
+        <v>0.09255441741743681</v>
       </c>
       <c r="J13">
-        <v>0.09626145974714793</v>
+        <v>0.09255441741743679</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.24938786941986</v>
+        <v>1.265607333333333</v>
       </c>
       <c r="N13">
-        <v>1.24938786941986</v>
+        <v>3.796822</v>
       </c>
       <c r="O13">
-        <v>0.1524272550203603</v>
+        <v>0.1444941366386454</v>
       </c>
       <c r="P13">
-        <v>0.1524272550203603</v>
+        <v>0.1444941366386455</v>
       </c>
       <c r="Q13">
-        <v>2.90575654745291</v>
+        <v>3.363634562506889</v>
       </c>
       <c r="R13">
-        <v>2.90575654745291</v>
+        <v>30.272711062562</v>
       </c>
       <c r="S13">
-        <v>0.01467287007351067</v>
+        <v>0.01337357063682534</v>
       </c>
       <c r="T13">
-        <v>0.01467287007351067</v>
+        <v>0.01337357063682534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.51705346423883</v>
+        <v>3.628561</v>
       </c>
       <c r="H14">
-        <v>1.51705346423883</v>
+        <v>10.885683</v>
       </c>
       <c r="I14">
-        <v>0.06279013107429157</v>
+        <v>0.1263635319317616</v>
       </c>
       <c r="J14">
-        <v>0.06279013107429157</v>
+        <v>0.1263635319317616</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.77490874188457</v>
+        <v>1.956596</v>
       </c>
       <c r="N14">
-        <v>1.77490874188457</v>
+        <v>5.869788</v>
       </c>
       <c r="O14">
-        <v>0.2165416153453857</v>
+        <v>0.2233841747945733</v>
       </c>
       <c r="P14">
-        <v>0.2165416153453857</v>
+        <v>0.2233841747945733</v>
       </c>
       <c r="Q14">
-        <v>2.69263145558377</v>
+        <v>7.099627938356</v>
       </c>
       <c r="R14">
-        <v>2.69263145558377</v>
+        <v>63.896651445204</v>
       </c>
       <c r="S14">
-        <v>0.01359667641057559</v>
+        <v>0.02822761330470428</v>
       </c>
       <c r="T14">
-        <v>0.01359667641057559</v>
+        <v>0.02822761330470428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.51705346423883</v>
+        <v>3.628561</v>
       </c>
       <c r="H15">
-        <v>1.51705346423883</v>
+        <v>10.885683</v>
       </c>
       <c r="I15">
-        <v>0.06279013107429157</v>
+        <v>0.1263635319317616</v>
       </c>
       <c r="J15">
-        <v>0.06279013107429157</v>
+        <v>0.1263635319317616</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.21736141105477</v>
+        <v>3.312913666666667</v>
       </c>
       <c r="N15">
-        <v>3.21736141105477</v>
+        <v>9.938741</v>
       </c>
       <c r="O15">
-        <v>0.3925230749384738</v>
+        <v>0.3782346920846191</v>
       </c>
       <c r="P15">
-        <v>0.3925230749384738</v>
+        <v>0.3782346920846191</v>
       </c>
       <c r="Q15">
-        <v>4.880909274348969</v>
+        <v>12.02110932723367</v>
       </c>
       <c r="R15">
-        <v>4.880909274348969</v>
+        <v>108.189983945103</v>
       </c>
       <c r="S15">
-        <v>0.02464657532507074</v>
+        <v>0.04779507159093479</v>
       </c>
       <c r="T15">
-        <v>0.02464657532507074</v>
+        <v>0.04779507159093478</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.51705346423883</v>
+        <v>3.628561</v>
       </c>
       <c r="H16">
-        <v>1.51705346423883</v>
+        <v>10.885683</v>
       </c>
       <c r="I16">
-        <v>0.06279013107429157</v>
+        <v>0.1263635319317616</v>
       </c>
       <c r="J16">
-        <v>0.06279013107429157</v>
+        <v>0.1263635319317616</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.95495923780844</v>
+        <v>2.223766666666667</v>
       </c>
       <c r="N16">
-        <v>1.95495923780844</v>
+        <v>6.6713</v>
       </c>
       <c r="O16">
-        <v>0.2385080546957802</v>
+        <v>0.253886996482162</v>
       </c>
       <c r="P16">
-        <v>0.2385080546957802</v>
+        <v>0.2538869964821621</v>
       </c>
       <c r="Q16">
-        <v>2.965777684162997</v>
+        <v>8.069072999766666</v>
       </c>
       <c r="R16">
-        <v>2.965777684162997</v>
+        <v>72.6216569979</v>
       </c>
       <c r="S16">
-        <v>0.01497595201662234</v>
+        <v>0.03208205758703273</v>
       </c>
       <c r="T16">
-        <v>0.01497595201662234</v>
+        <v>0.03208205758703273</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.51705346423883</v>
+        <v>3.628561</v>
       </c>
       <c r="H17">
-        <v>1.51705346423883</v>
+        <v>10.885683</v>
       </c>
       <c r="I17">
-        <v>0.06279013107429157</v>
+        <v>0.1263635319317616</v>
       </c>
       <c r="J17">
-        <v>0.06279013107429157</v>
+        <v>0.1263635319317616</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.24938786941986</v>
+        <v>1.265607333333333</v>
       </c>
       <c r="N17">
-        <v>1.24938786941986</v>
+        <v>3.796822</v>
       </c>
       <c r="O17">
-        <v>0.1524272550203603</v>
+        <v>0.1444941366386454</v>
       </c>
       <c r="P17">
-        <v>0.1524272550203603</v>
+        <v>0.1444941366386455</v>
       </c>
       <c r="Q17">
-        <v>1.895388195481369</v>
+        <v>4.592333411047333</v>
       </c>
       <c r="R17">
-        <v>1.895388195481369</v>
+        <v>41.331000699426</v>
       </c>
       <c r="S17">
-        <v>0.009570927322022893</v>
+        <v>0.0182587894490898</v>
       </c>
       <c r="T17">
-        <v>0.009570927322022893</v>
+        <v>0.0182587894490898</v>
       </c>
     </row>
   </sheetData>
